--- a/proy_prueba/proy_files/BD_2.xlsx
+++ b/proy_prueba/proy_files/BD_2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profesores" sheetId="1" r:id="rId1"/>
@@ -912,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -956,8 +956,8 @@
       <c r="C2" s="21">
         <v>1</v>
       </c>
-      <c r="D2" s="15">
-        <v>8</v>
+      <c r="D2" s="21">
+        <v>1</v>
       </c>
       <c r="E2" s="15">
         <v>5</v>
@@ -977,8 +977,8 @@
       <c r="C3" s="21">
         <v>2</v>
       </c>
-      <c r="D3" s="15">
-        <v>8</v>
+      <c r="D3" s="21">
+        <v>2</v>
       </c>
       <c r="E3" s="15">
         <v>5</v>
@@ -998,8 +998,8 @@
       <c r="C4" s="21">
         <v>5</v>
       </c>
-      <c r="D4" s="15">
-        <v>8</v>
+      <c r="D4" s="21">
+        <v>5</v>
       </c>
       <c r="E4" s="15">
         <v>5</v>
@@ -1019,8 +1019,8 @@
       <c r="C5" s="21">
         <v>1</v>
       </c>
-      <c r="D5" s="15">
-        <v>8</v>
+      <c r="D5" s="21">
+        <v>1</v>
       </c>
       <c r="E5" s="15">
         <v>5</v>
@@ -1040,8 +1040,8 @@
       <c r="C6" s="21">
         <v>6</v>
       </c>
-      <c r="D6" s="15">
-        <v>8</v>
+      <c r="D6" s="21">
+        <v>6</v>
       </c>
       <c r="E6" s="15">
         <v>5</v>
@@ -1061,7 +1061,7 @@
       <c r="C7" s="21">
         <v>8</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="21">
         <v>8</v>
       </c>
       <c r="E7" s="15">
@@ -1082,7 +1082,7 @@
       <c r="C8" s="21">
         <v>8</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="21">
         <v>8</v>
       </c>
       <c r="E8" s="15">
@@ -1103,8 +1103,8 @@
       <c r="C9" s="21">
         <v>5</v>
       </c>
-      <c r="D9" s="15">
-        <v>8</v>
+      <c r="D9" s="21">
+        <v>5</v>
       </c>
       <c r="E9" s="15">
         <v>5</v>
@@ -1124,7 +1124,7 @@
       <c r="C10" s="21">
         <v>8</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="21">
         <v>8</v>
       </c>
       <c r="E10" s="15">
@@ -1145,8 +1145,8 @@
       <c r="C11" s="21">
         <v>1.5</v>
       </c>
-      <c r="D11" s="15">
-        <v>8</v>
+      <c r="D11" s="21">
+        <v>1.5</v>
       </c>
       <c r="E11" s="15">
         <v>5</v>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)*10</f>
-        <v>800</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17">
         <f>C15+D15-C16</f>
-        <v>1305</v>
+        <v>960</v>
       </c>
     </row>
   </sheetData>
@@ -2576,7 +2576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
